--- a/1 Gestion de la Produccion/_Calculos KPIs Tecnomecatronix.xlsx
+++ b/1 Gestion de la Produccion/_Calculos KPIs Tecnomecatronix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\OneDrive\Desktop\Material Ing. Mecatrónica\12vo semestre\Automatización de Procesos de Manufactura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C486C720-B7A1-4645-B1F0-96F98C0F0A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299C5188-41AF-48AF-8AAB-1426BE2CB021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Automatizado" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="56">
   <si>
     <t>KPIs</t>
   </si>
@@ -180,9 +180,6 @@
     <t>Periodo de evaluación: 3 días, 4320 min, 259200 seg</t>
   </si>
   <si>
-    <t>Valor [seg]</t>
-  </si>
-  <si>
     <t>Tiempo de ciclo real [seg]</t>
   </si>
   <si>
@@ -191,18 +188,32 @@
   <si>
     <t>Esmaltador1</t>
   </si>
+  <si>
+    <t>Tiempo de evaluación: 3 días, 4320 min, 259200 seg</t>
+  </si>
+  <si>
+    <t>Tasa de eficiencia</t>
+  </si>
+  <si>
+    <t>Eficiencia en velocidad</t>
+  </si>
+  <si>
+    <t>Tiempos de inactividad  NO planeados</t>
+  </si>
+  <si>
+    <t>Tiempos de inactividad planeados</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000%"/>
     <numFmt numFmtId="165" formatCode="0.000000000"/>
     <numFmt numFmtId="166" formatCode="0.00000%"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -235,12 +246,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -265,8 +270,29 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,44 +301,110 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFF4CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor rgb="FFF4CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor rgb="FF00FF00"/>
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FFFF"/>
         <bgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4CCCC"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor rgb="FFF4CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -469,28 +561,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -502,13 +581,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -517,126 +590,208 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="4" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -647,34 +802,59 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="18" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="18" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="18" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="18" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -693,18 +873,18 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>708660</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>5715</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4781550" cy="2828925"/>
+    <xdr:ext cx="4781550" cy="2705100"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.jpg" title="Imagen">
+        <xdr:cNvPr id="5" name="image5.jpg" title="Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -717,6 +897,10 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="708660" y="13965555"/>
+          <a:ext cx="4781550" cy="2705100"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -728,17 +912,17 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4781550" cy="2705100"/>
+    <xdr:ext cx="4819650" cy="2828925"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="image4.jpg" title="Imagen">
+        <xdr:cNvPr id="6" name="image3.png" title="Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -761,18 +945,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4743450" cy="2876550"/>
+    <xdr:ext cx="4781550" cy="2705100"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="image2.jpg" title="Imagen">
+        <xdr:cNvPr id="8" name="image4.jpg" title="Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{596DE677-D309-4CD6-968C-09B06D94A481}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -785,6 +969,10 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1005840"/>
+          <a:ext cx="4781550" cy="2705100"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -795,18 +983,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4781550" cy="2705100"/>
+    <xdr:ext cx="4781550" cy="2828925"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="image5.jpg" title="Imagen">
+        <xdr:cNvPr id="9" name="image1.jpg" title="Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90170977-294B-435B-9B0B-E21D740E9C43}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -819,6 +1007,10 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13898880" y="670560"/>
+          <a:ext cx="4781550" cy="2828925"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -829,18 +1021,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>914400</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4819650" cy="2828925"/>
+    <xdr:ext cx="4743450" cy="2876550"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="image3.png" title="Imagen">
+        <xdr:cNvPr id="10" name="image2.jpg" title="Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9FD56A8-51BD-47D5-A4A2-330AC96BEB31}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -853,6 +1045,10 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6286500"/>
+          <a:ext cx="4743450" cy="2876550"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -861,6 +1057,50 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>121921</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>43477</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagen 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF5A69AE-EC4C-0133-61A7-9CD9EFCF0CD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11391900" y="6682741"/>
+          <a:ext cx="5181600" cy="2504736"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -902,44 +1142,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4743450" cy="2876550"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="image2.jpg" title="Imagen">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>89535</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4781550" cy="2705100"/>
     <xdr:pic>
@@ -954,12 +1160,16 @@
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="14598015"/>
+          <a:ext cx="4781550" cy="2705100"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -970,18 +1180,94 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>914400</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4781550" cy="2705100"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="image4.jpg" title="Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{670F6C70-BE2E-48F2-8FA3-727FC2AF0987}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1173480"/>
+          <a:ext cx="4781550" cy="2705100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4743450" cy="2876550"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="image2.jpg" title="Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FB67E07-484B-459F-BBF0-21279FBB3F3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6431280"/>
+          <a:ext cx="4743450" cy="2876550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4819650" cy="2828925"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="image3.png" title="Imagen">
+        <xdr:cNvPr id="8" name="image3.png" title="Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6600803-06CE-4AE8-8532-442389B91307}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -994,6 +1280,10 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8816340" y="6766560"/>
+          <a:ext cx="4819650" cy="2828925"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -1206,28 +1496,28 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1036"/>
+  <dimension ref="A1:Z1035"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38:I39"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="24"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="15"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -1246,16 +1536,16 @@
     </row>
     <row r="2" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="26"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="17"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -1301,17 +1591,17 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="2"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="63" t="s">
-        <v>47</v>
+      <c r="E4" s="23" t="s">
+        <v>51</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="24"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="15"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -1331,15 +1621,15 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="26"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="17"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -1359,8 +1649,8 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="32"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1388,13 +1678,23 @@
     </row>
     <row r="7" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="27" t="s">
+        <v>8</v>
+      </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -1411,22 +1711,23 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
-        <v>1</v>
+    <row r="8" spans="1:26" ht="19.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F8" s="25"/>
+      <c r="G8" s="14" t="s">
+        <v>29</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="3">
-        <v>245574</v>
+      <c r="H8" s="9">
+        <v>0.74619999999999997</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="1"/>
+      <c r="I8" s="9">
+        <v>1.9099999999999999E-2</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0.1867</v>
+      </c>
+      <c r="K8" s="9">
+        <v>4.8000000000000001E-2</v>
+      </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1443,23 +1744,23 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
-        <v>2</v>
+    <row r="9" spans="1:26" ht="19.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F9" s="26"/>
+      <c r="G9" s="14" t="s">
+        <v>30</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="3">
-        <f>C8-(C8*C10)</f>
-        <v>12278.700000000012</v>
+      <c r="H9" s="9">
+        <v>0.78029999999999999</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="1"/>
+      <c r="I9" s="9">
+        <v>3.6900000000000002E-2</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0.16120000000000001</v>
+      </c>
+      <c r="K9" s="9">
+        <v>2.1499999999999998E-2</v>
+      </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -1476,22 +1777,23 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="55" t="s">
-        <v>3</v>
+    <row r="10" spans="1:26" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="24"/>
+      <c r="G10" s="14" t="s">
+        <v>37</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="4">
-        <v>0.95</v>
+      <c r="H10" s="12">
+        <v>0.78029999999999999</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="I10" s="12">
+        <v>5.0299999999999997E-2</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0.14860000000000001</v>
+      </c>
+      <c r="K10" s="12">
+        <v>2.0799999999999999E-2</v>
+      </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1508,28 +1810,22 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="5" t="s">
-        <v>4</v>
+    <row r="11" spans="1:26" ht="15" x14ac:dyDescent="0.35">
+      <c r="G11" s="13" t="s">
+        <v>31</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>5</v>
+      <c r="H11" s="9">
+        <v>0.39019999999999999</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>6</v>
+      <c r="I11" s="9">
+        <v>0.14019999999999999</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>7</v>
+      <c r="J11" s="9">
+        <v>0.45329999999999998</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>8</v>
+      <c r="K11" s="9">
+        <v>1.6299999999999999E-2</v>
       </c>
-      <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1547,27 +1843,21 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="15" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="22" t="s">
-        <v>29</v>
+      <c r="G12" s="13" t="s">
+        <v>50</v>
       </c>
-      <c r="G12" s="15">
-        <v>0.74619999999999997</v>
+      <c r="H12" s="9">
+        <v>0.39019999999999999</v>
       </c>
-      <c r="H12" s="15">
-        <v>1.9099999999999999E-2</v>
+      <c r="I12" s="9">
+        <v>0.13189999999999999</v>
       </c>
-      <c r="I12" s="15">
-        <v>0.1867</v>
+      <c r="J12" s="9">
+        <v>0.45689999999999997</v>
       </c>
-      <c r="J12" s="15">
-        <v>4.8000000000000001E-2</v>
+      <c r="K12" s="9">
+        <v>2.1000000000000001E-2</v>
       </c>
-      <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -1585,27 +1875,21 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="15" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="22" t="s">
-        <v>30</v>
+      <c r="G13" s="13" t="s">
+        <v>32</v>
       </c>
-      <c r="G13" s="15">
+      <c r="H13" s="9">
         <v>0.78029999999999999</v>
       </c>
-      <c r="H13" s="15">
-        <v>3.6900000000000002E-2</v>
+      <c r="I13" s="9">
+        <v>3.8399999999999997E-2</v>
       </c>
-      <c r="I13" s="15">
-        <v>0.16120000000000001</v>
+      <c r="J13" s="9">
+        <v>0.16539999999999999</v>
       </c>
-      <c r="J13" s="15">
-        <v>2.1499999999999998E-2</v>
+      <c r="K13" s="9">
+        <v>1.5900000000000001E-2</v>
       </c>
-      <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -1622,28 +1906,22 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="22" t="s">
-        <v>37</v>
+    <row r="14" spans="1:26" ht="15" x14ac:dyDescent="0.35">
+      <c r="G14" s="13" t="s">
+        <v>33</v>
       </c>
-      <c r="G14" s="20">
-        <v>0.78029999999999999</v>
+      <c r="H14" s="9">
+        <v>0.91920000000000002</v>
       </c>
-      <c r="H14" s="20">
-        <v>5.0299999999999997E-2</v>
+      <c r="I14" s="9">
+        <v>4.4400000000000002E-2</v>
       </c>
-      <c r="I14" s="20">
-        <v>0.14860000000000001</v>
+      <c r="J14" s="9">
+        <v>1.78E-2</v>
       </c>
-      <c r="J14" s="20">
-        <v>2.0799999999999999E-2</v>
+      <c r="K14" s="9">
+        <v>1.8700000000000001E-2</v>
       </c>
-      <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -1661,27 +1939,21 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="15" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="21" t="s">
-        <v>31</v>
+      <c r="G15" s="13" t="s">
+        <v>38</v>
       </c>
-      <c r="G15" s="15">
-        <v>0.39019999999999999</v>
+      <c r="H15" s="9">
+        <v>0.78039999999999998</v>
       </c>
-      <c r="H15" s="15">
-        <v>0.14019999999999999</v>
+      <c r="I15" s="9">
+        <v>0.1988</v>
       </c>
-      <c r="I15" s="15">
-        <v>0.45329999999999998</v>
+      <c r="J15" s="9">
+        <v>0</v>
       </c>
-      <c r="J15" s="15">
-        <v>1.6299999999999999E-2</v>
+      <c r="K15" s="9">
+        <v>2.0799999999999999E-2</v>
       </c>
-      <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -1699,27 +1971,21 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="15" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="21" t="s">
-        <v>51</v>
+      <c r="G16" s="13" t="s">
+        <v>40</v>
       </c>
-      <c r="G16" s="15">
-        <v>0.39019999999999999</v>
+      <c r="H16" s="9">
+        <v>0.70789999999999997</v>
       </c>
-      <c r="H16" s="15">
-        <v>0.13189999999999999</v>
+      <c r="I16" s="9">
+        <v>0.27029999999999998</v>
       </c>
-      <c r="I16" s="15">
-        <v>0.45689999999999997</v>
+      <c r="J16" s="9">
+        <v>0</v>
       </c>
-      <c r="J16" s="15">
-        <v>2.1000000000000001E-2</v>
+      <c r="K16" s="9">
+        <v>2.18E-2</v>
       </c>
-      <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -1737,27 +2003,21 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="15" x14ac:dyDescent="0.35">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="21" t="s">
-        <v>32</v>
+      <c r="G17" s="14" t="s">
+        <v>34</v>
       </c>
-      <c r="G17" s="15">
-        <v>0.78029999999999999</v>
+      <c r="H17" s="9">
+        <v>0.94750000000000001</v>
       </c>
-      <c r="H17" s="15">
-        <v>3.8399999999999997E-2</v>
+      <c r="I17" s="9">
+        <v>2.2100000000000002E-2</v>
       </c>
-      <c r="I17" s="15">
-        <v>0.16539999999999999</v>
+      <c r="J17" s="9">
+        <v>1.1599999999999999E-2</v>
       </c>
-      <c r="J17" s="15">
-        <v>1.5900000000000001E-2</v>
+      <c r="K17" s="9">
+        <v>1.89E-2</v>
       </c>
-      <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -1775,35 +2035,34 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="15" x14ac:dyDescent="0.35">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="21" t="s">
-        <v>33</v>
+      <c r="G18" s="14" t="s">
+        <v>39</v>
       </c>
-      <c r="G18" s="15">
-        <v>0.91920000000000002</v>
+      <c r="H18" s="9">
+        <v>0.75800000000000001</v>
       </c>
-      <c r="H18" s="15">
-        <v>4.4400000000000002E-2</v>
+      <c r="I18" s="9">
+        <v>0.2089</v>
       </c>
-      <c r="I18" s="15">
-        <v>1.78E-2</v>
+      <c r="J18" s="9">
+        <v>9.4999999999999998E-3</v>
       </c>
-      <c r="J18" s="15">
-        <v>1.8700000000000001E-2</v>
+      <c r="K18" s="9">
+        <v>2.3599999999999999E-2</v>
       </c>
-      <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
+      <c r="Q18" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="R18" s="39"/>
+      <c r="S18" s="40">
+        <f>C30</f>
+        <v>0.71914615384615377</v>
+      </c>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
@@ -1813,35 +2072,29 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="21" t="s">
-        <v>38</v>
+      <c r="G19" s="14" t="s">
+        <v>35</v>
       </c>
-      <c r="G19" s="15">
-        <v>0.78039999999999998</v>
+      <c r="H19" s="9">
+        <v>0.84219999999999995</v>
       </c>
-      <c r="H19" s="15">
-        <v>0.1988</v>
+      <c r="I19" s="9">
+        <v>0.13569999999999999</v>
       </c>
-      <c r="I19" s="15">
-        <v>0</v>
+      <c r="J19" s="9">
+        <v>3.5999999999999999E-3</v>
       </c>
-      <c r="J19" s="15">
-        <v>2.0799999999999999E-2</v>
+      <c r="K19" s="9">
+        <v>1.8499999999999999E-2</v>
       </c>
-      <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="43"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
@@ -1851,35 +2104,41 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.35">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="21" t="s">
-        <v>40</v>
+      <c r="A20" s="30" t="s">
+        <v>10</v>
       </c>
-      <c r="G20" s="15">
-        <v>0.70789999999999997</v>
+      <c r="B20" s="31"/>
+      <c r="C20" s="32" t="s">
+        <v>11</v>
       </c>
-      <c r="H20" s="15">
-        <v>0.27029999999999998</v>
+      <c r="G20" s="14" t="s">
+        <v>36</v>
       </c>
-      <c r="I20" s="15">
+      <c r="H20" s="9">
+        <v>0.52639999999999998</v>
+      </c>
+      <c r="I20" s="9">
+        <v>0.45760000000000001</v>
+      </c>
+      <c r="J20" s="9">
         <v>0</v>
       </c>
-      <c r="J20" s="15">
-        <v>2.18E-2</v>
+      <c r="K20" s="9">
+        <v>1.61E-2</v>
       </c>
-      <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
+      <c r="Q20" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="R20" s="67"/>
+      <c r="S20" s="68">
+        <f>D68</f>
+        <v>0.94743055555555189</v>
+      </c>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
@@ -1888,36 +2147,37 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.35">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="22" t="s">
-        <v>34</v>
+    <row r="21" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="33"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="35"/>
+      <c r="G21" s="27" t="s">
+        <v>9</v>
       </c>
-      <c r="G21" s="15">
-        <v>0.94750000000000001</v>
+      <c r="H21" s="28">
+        <f>SUM(H8:H20)/13</f>
+        <v>0.71916153846153841</v>
       </c>
-      <c r="H21" s="15">
-        <v>2.2100000000000002E-2</v>
+      <c r="I21" s="28">
+        <f>SUM(I8:I20)/13</f>
+        <v>0.13496923076923076</v>
       </c>
-      <c r="I21" s="15">
-        <v>1.1599999999999999E-2</v>
+      <c r="J21" s="28">
+        <f>SUM(J8:J20)/13</f>
+        <v>0.1242</v>
       </c>
-      <c r="J21" s="15">
-        <v>1.89E-2</v>
+      <c r="K21" s="28">
+        <f>SUM(K8:K20)/13</f>
+        <v>2.1684615384615382E-2</v>
       </c>
-      <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
+      <c r="Q21" s="69"/>
+      <c r="R21" s="70"/>
+      <c r="S21" s="71"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
@@ -1926,36 +2186,28 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.35">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="22" t="s">
-        <v>39</v>
+    <row r="22" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="85" t="s">
+        <v>13</v>
       </c>
-      <c r="G22" s="15">
-        <v>0.75800000000000001</v>
+      <c r="B22" s="86"/>
+      <c r="C22" s="36">
+        <f>C26*K21</f>
+        <v>93.677538461538447</v>
       </c>
-      <c r="H22" s="15">
-        <v>0.2089</v>
-      </c>
-      <c r="I22" s="15">
-        <v>9.4999999999999998E-3</v>
-      </c>
-      <c r="J22" s="15">
-        <v>2.3599999999999999E-2</v>
-      </c>
-      <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
+      <c r="Q22" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" s="79"/>
+      <c r="S22" s="80">
+        <f>Q54</f>
+        <v>0.95</v>
+      </c>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
@@ -1964,36 +2216,20 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.35">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+    <row r="23" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A23" s="87"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="15">
-        <v>0.84219999999999995</v>
-      </c>
-      <c r="H23" s="15">
-        <v>0.13569999999999999</v>
-      </c>
-      <c r="I23" s="15">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="J23" s="15">
-        <v>1.8499999999999999E-2</v>
-      </c>
-      <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
+      <c r="Q23" s="79"/>
+      <c r="R23" s="79"/>
+      <c r="S23" s="79"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
@@ -2002,36 +2238,30 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.35">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+    <row r="24" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="85" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="86"/>
+      <c r="C24" s="36">
+        <f>C26*(I21+J21)</f>
+        <v>1119.611076923077</v>
+      </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" s="15">
-        <v>0.52639999999999998</v>
-      </c>
-      <c r="H24" s="15">
-        <v>0.45760000000000001</v>
-      </c>
-      <c r="I24" s="15">
-        <v>0</v>
-      </c>
-      <c r="J24" s="15">
-        <v>1.61E-2</v>
-      </c>
-      <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
+      <c r="Q24" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="R24" s="82"/>
+      <c r="S24" s="83">
+        <f>S22*S20*S18</f>
+        <v>0.64727398806089487</v>
+      </c>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
@@ -2040,36 +2270,20 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.35">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+    <row r="25" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="87"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="G25" s="15">
-        <v>0.39019999999999999</v>
-      </c>
-      <c r="H25" s="15">
-        <v>0.13189999999999999</v>
-      </c>
-      <c r="I25" s="15">
-        <v>0.45689999999999997</v>
-      </c>
-      <c r="J25" s="15">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
+      <c r="Q25" s="82"/>
+      <c r="R25" s="82"/>
+      <c r="S25" s="82"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
@@ -2079,31 +2293,18 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="A26" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="86"/>
+      <c r="C26" s="36">
+        <v>4320</v>
+      </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" s="6">
-        <f>SUM(G12:G25)/14</f>
-        <v>0.69566428571428574</v>
-      </c>
-      <c r="H26" s="6">
-        <f>SUM(H12:H25)/14</f>
-        <v>0.13474999999999998</v>
-      </c>
-      <c r="I26" s="6">
-        <f>SUM(I12:I25)/14</f>
-        <v>0.14796428571428571</v>
-      </c>
-      <c r="J26" s="6">
-        <f>SUM(J12:J25)/14</f>
-        <v>2.1635714285714286E-2</v>
-      </c>
-      <c r="K26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -2120,46 +2321,40 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="87"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="37"/>
+    </row>
+    <row r="28" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A28" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="86"/>
+      <c r="C28" s="36">
+        <f>C26-C24-C22</f>
+        <v>3106.7113846153843</v>
+      </c>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="1"/>
+      <c r="A29" s="87"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="37"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
@@ -2177,25 +2372,19 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="1"/>
+      <c r="A30" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="39"/>
+      <c r="C30" s="40">
+        <f>C28/C26</f>
+        <v>0.71914615384615377</v>
+      </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
@@ -2205,25 +2394,14 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="43"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
@@ -2233,11 +2411,9 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
-      <c r="B32" s="32"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="19"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -2246,9 +2422,6 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
@@ -2258,11 +2431,9 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="31"/>
-      <c r="B33" s="32"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="19"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -2283,23 +2454,18 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="31"/>
-      <c r="B34" s="32"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="19"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="51" t="s">
-        <v>10</v>
+      <c r="G34" s="46" t="s">
+        <v>19</v>
       </c>
-      <c r="G34" s="24"/>
-      <c r="H34" s="46" t="s">
-        <v>11</v>
+      <c r="H34" s="47"/>
+      <c r="I34" s="48">
+        <f>Q52</f>
+        <v>245574</v>
       </c>
-      <c r="I34" s="1"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
@@ -2315,30 +2481,12 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="L35" s="24"/>
-      <c r="M35" s="27">
-        <f>H44</f>
-        <v>0.69564999999999999</v>
-      </c>
+      <c r="G35" s="49"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="51"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
@@ -2348,29 +2496,17 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="52" t="s">
-        <v>13</v>
+      <c r="G36" s="46" t="s">
+        <v>20</v>
       </c>
-      <c r="G36" s="24"/>
-      <c r="H36" s="53">
-        <f>H40*J26</f>
-        <v>93.466285714285718</v>
+      <c r="H36" s="47"/>
+      <c r="I36" s="52">
+        <f>0.017</f>
+        <v>1.7000000000000001E-2</v>
       </c>
-      <c r="I36" s="31"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="28"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
@@ -2380,29 +2516,13 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="32"/>
-      <c r="K37" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="L37" s="24"/>
-      <c r="M37" s="36">
-        <f>D75</f>
-        <v>0.85268749999999993</v>
-      </c>
+      <c r="G37" s="49"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
@@ -2412,30 +2532,18 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="52" t="s">
-        <v>15</v>
+      <c r="G38" s="53" t="s">
+        <v>48</v>
       </c>
-      <c r="G38" s="24"/>
-      <c r="H38" s="53">
-        <f>H40*(H26+I26)</f>
-        <v>1221.3257142857142</v>
+      <c r="H38" s="54"/>
+      <c r="I38" s="55">
+        <f>I36*60</f>
+        <v>1.02</v>
       </c>
-      <c r="I38" s="31"/>
       <c r="J38" s="1"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="26"/>
-      <c r="M38" s="28"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
@@ -2448,27 +2556,18 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="32"/>
+      <c r="G39" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="H39" s="54"/>
+      <c r="I39" s="55">
+        <f>I40*60</f>
+        <v>0.999999999999996</v>
+      </c>
       <c r="J39" s="1"/>
-      <c r="K39" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="L39" s="32"/>
-      <c r="M39" s="48">
-        <f>C10</f>
-        <v>0.95</v>
-      </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
@@ -2478,29 +2577,20 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="54" t="s">
-        <v>16</v>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="G40" s="46" t="s">
+        <v>21</v>
       </c>
-      <c r="G40" s="24"/>
-      <c r="H40" s="53">
-        <v>4320</v>
+      <c r="H40" s="47"/>
+      <c r="I40" s="52">
+        <v>1.6666666666666601E-2</v>
       </c>
-      <c r="I40" s="31"/>
       <c r="J40" s="1"/>
-      <c r="K40" s="32"/>
-      <c r="L40" s="32"/>
-      <c r="M40" s="32"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
@@ -2510,30 +2600,16 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="32"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="4"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="51"/>
       <c r="J41" s="1"/>
-      <c r="K41" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="L41" s="32"/>
-      <c r="M41" s="50">
-        <f>M39*M37*M35</f>
-        <v>0.56351345640624995</v>
-      </c>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
@@ -2543,30 +2619,14 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A42" s="31"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" s="24"/>
-      <c r="H42" s="53">
-        <f>H40-H38-H36</f>
-        <v>3005.2080000000001</v>
-      </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="32"/>
-      <c r="M42" s="32"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
@@ -2576,15 +2636,16 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="1"/>
+      <c r="G43" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43" s="57"/>
+      <c r="I43" s="58">
+        <f>D58</f>
+        <v>4320</v>
+      </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -2604,20 +2665,11 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" s="24"/>
-      <c r="H44" s="27">
-        <f>H42/H40</f>
-        <v>0.69564999999999999</v>
-      </c>
-      <c r="I44" s="1"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2642,9 +2694,9 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="28"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -2671,9 +2723,14 @@
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
+      <c r="G46" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="H46" s="47"/>
+      <c r="I46" s="59">
+        <f>I43/I40</f>
+        <v>259200.00000000102</v>
+      </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -2699,9 +2756,9 @@
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="49"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -2720,20 +2777,17 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+    <row r="48" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.25">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="18"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
@@ -2749,24 +2803,16 @@
       <c r="Z48" s="1"/>
     </row>
     <row r="49" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" s="24"/>
-      <c r="H49" s="30">
-        <f>C8</f>
-        <v>245574</v>
-      </c>
       <c r="I49" s="1"/>
-      <c r="J49" s="31"/>
-      <c r="K49" s="32"/>
-      <c r="L49" s="31"/>
-      <c r="M49" s="31"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
@@ -2782,19 +2828,17 @@
       <c r="Z49" s="1"/>
     </row>
     <row r="50" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
+      <c r="A50" s="5"/>
+      <c r="B50" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="57"/>
+      <c r="D50" s="60">
+        <f>I34/I46</f>
+        <v>0.94743055555555178</v>
+      </c>
       <c r="E50" s="1"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="32"/>
-      <c r="M50" s="32"/>
+      <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
@@ -2810,23 +2854,11 @@
       <c r="Z50" s="1"/>
     </row>
     <row r="51" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
+      <c r="A51" s="5"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="57"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G51" s="24"/>
-      <c r="H51" s="33">
-        <f>H40/H49</f>
-        <v>1.7591438833101224E-2</v>
-      </c>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
@@ -2843,23 +2875,25 @@
       <c r="Z51" s="1"/>
     </row>
     <row r="52" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
+      <c r="A52" s="5"/>
+      <c r="B52" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="57"/>
+      <c r="D52" s="60">
+        <f>I40/I36</f>
+        <v>0.98039215686274117</v>
+      </c>
       <c r="E52" s="1"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
-      <c r="Q52" s="1"/>
+      <c r="O52" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="P52" s="73"/>
+      <c r="Q52" s="74">
+        <v>245574</v>
+      </c>
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
@@ -2871,28 +2905,21 @@
       <c r="Z52" s="1"/>
     </row>
     <row r="53" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
+      <c r="A53" s="5"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="57"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="73" t="s">
-        <v>49</v>
-      </c>
-      <c r="G53" s="74"/>
-      <c r="H53" s="10">
-        <f>H51*60</f>
-        <v>1.0554863299860735</v>
-      </c>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
+      <c r="O53" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="P53" s="73"/>
+      <c r="Q53" s="74">
+        <f>Q52-(Q52*Q54)</f>
+        <v>12278.700000000012</v>
+      </c>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
@@ -2904,28 +2931,25 @@
       <c r="Z53" s="1"/>
     </row>
     <row r="54" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
+      <c r="A54" s="5"/>
+      <c r="B54" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="57"/>
+      <c r="D54" s="58">
+        <f>I34</f>
+        <v>245574</v>
+      </c>
       <c r="E54" s="1"/>
-      <c r="F54" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="G54" s="74"/>
-      <c r="H54" s="10">
-        <f>H55*60</f>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
+      <c r="O54" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="76"/>
+      <c r="Q54" s="77">
+        <v>0.95</v>
+      </c>
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
@@ -2937,22 +2961,11 @@
       <c r="Z54" s="1"/>
     </row>
     <row r="55" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
+      <c r="A55" s="5"/>
+      <c r="B55" s="57"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="57"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" s="24"/>
-      <c r="H55" s="33">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
@@ -2969,18 +2982,17 @@
       <c r="Z55" s="1"/>
     </row>
     <row r="56" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
+      <c r="A56" s="5"/>
+      <c r="B56" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" s="57"/>
+      <c r="D56" s="58">
+        <f>C26/I40</f>
+        <v>259200.00000000102</v>
+      </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
+      <c r="F56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
@@ -2997,23 +3009,12 @@
       <c r="Z56" s="1"/>
     </row>
     <row r="57" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A57" s="9"/>
-      <c r="B57" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C57" s="24"/>
-      <c r="D57" s="34">
-        <f>H49/H72</f>
-        <v>0.85268750000000004</v>
-      </c>
+      <c r="A57" s="5"/>
+      <c r="B57" s="57"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="57"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
@@ -3030,25 +3031,21 @@
       <c r="Z57" s="1"/>
     </row>
     <row r="58" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A58" s="9"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="28"/>
+      <c r="A58" s="5"/>
+      <c r="B58" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="57"/>
+      <c r="D58" s="56">
+        <f>C26</f>
+        <v>4320</v>
+      </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
-      <c r="R58" s="1"/>
-      <c r="S58" s="1"/>
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
       <c r="V58" s="1"/>
@@ -3058,30 +3055,16 @@
       <c r="Z58" s="1"/>
     </row>
     <row r="59" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A59" s="9"/>
-      <c r="B59" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C59" s="24"/>
-      <c r="D59" s="34">
-        <f>H55/H51</f>
-        <v>0.85268749999999993</v>
-      </c>
+      <c r="A59" s="5"/>
+      <c r="B59" s="57"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="57"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
-      <c r="R59" s="1"/>
-      <c r="S59" s="1"/>
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
@@ -3091,25 +3074,21 @@
       <c r="Z59" s="1"/>
     </row>
     <row r="60" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A60" s="9"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="28"/>
+      <c r="A60" s="5"/>
+      <c r="B60" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" s="57"/>
+      <c r="D60" s="56">
+        <f>I40</f>
+        <v>1.6666666666666601E-2</v>
+      </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="1"/>
-      <c r="S60" s="1"/>
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
       <c r="V60" s="1"/>
@@ -3119,23 +3098,12 @@
       <c r="Z60" s="1"/>
     </row>
     <row r="61" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A61" s="9"/>
-      <c r="B61" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C61" s="24"/>
-      <c r="D61" s="30">
-        <f>H49</f>
-        <v>245574</v>
-      </c>
+      <c r="A61" s="5"/>
+      <c r="B61" s="57"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="57"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
@@ -3152,15 +3120,17 @@
       <c r="Z61" s="1"/>
     </row>
     <row r="62" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A62" s="9"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="28"/>
+      <c r="A62" s="5"/>
+      <c r="B62" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C62" s="57"/>
+      <c r="D62" s="56">
+        <f>I36</f>
+        <v>1.7000000000000001E-2</v>
+      </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
@@ -3180,20 +3150,12 @@
       <c r="Z62" s="1"/>
     </row>
     <row r="63" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A63" s="9"/>
-      <c r="B63" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C63" s="24"/>
-      <c r="D63" s="35">
-        <f>H40/H55</f>
-        <v>288000</v>
-      </c>
+      <c r="A63" s="5"/>
+      <c r="B63" s="57"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="57"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
@@ -3213,15 +3175,17 @@
       <c r="Z63" s="1"/>
     </row>
     <row r="64" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A64" s="9"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="25"/>
+      <c r="A64" s="5"/>
+      <c r="B64" s="84" t="s">
+        <v>52</v>
+      </c>
+      <c r="C64" s="57"/>
+      <c r="D64" s="61">
+        <f>I34*I36/D58</f>
+        <v>0.96637916666666679</v>
+      </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
@@ -3241,20 +3205,12 @@
       <c r="Z64" s="1"/>
     </row>
     <row r="65" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A65" s="9"/>
-      <c r="B65" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C65" s="24"/>
-      <c r="D65" s="33">
-        <f>H40</f>
-        <v>4320</v>
-      </c>
+      <c r="A65" s="5"/>
+      <c r="B65" s="57"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="57"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
+      <c r="F65" s="44"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
@@ -3274,19 +3230,21 @@
       <c r="Z65" s="1"/>
     </row>
     <row r="66" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A66" s="9"/>
-      <c r="B66" s="25"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="28"/>
+      <c r="A66" s="5"/>
+      <c r="B66" s="84" t="s">
+        <v>53</v>
+      </c>
+      <c r="C66" s="57"/>
+      <c r="D66" s="62">
+        <f>I40/I36</f>
+        <v>0.98039215686274117</v>
+      </c>
       <c r="E66" s="1"/>
       <c r="F66" s="29"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="19"/>
+      <c r="L66" s="18"/>
+      <c r="M66" s="18"/>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
@@ -3302,24 +3260,16 @@
       <c r="Z66" s="1"/>
     </row>
     <row r="67" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A67" s="9"/>
-      <c r="B67" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C67" s="24"/>
-      <c r="D67" s="33">
-        <f>H55</f>
-        <v>1.4999999999999999E-2</v>
-      </c>
+      <c r="A67" s="5"/>
+      <c r="B67" s="57"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="57"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="32"/>
-      <c r="J67" s="31"/>
-      <c r="K67" s="32"/>
-      <c r="L67" s="31"/>
-      <c r="M67" s="31"/>
+      <c r="F67" s="1"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="19"/>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
@@ -3335,19 +3285,20 @@
       <c r="Z67" s="1"/>
     </row>
     <row r="68" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A68" s="9"/>
-      <c r="B68" s="25"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="28"/>
+      <c r="A68" s="5"/>
+      <c r="B68" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="64"/>
+      <c r="D68" s="65">
+        <f>D66*D64</f>
+        <v>0.94743055555555189</v>
+      </c>
       <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="32"/>
-      <c r="K68" s="32"/>
-      <c r="L68" s="32"/>
-      <c r="M68" s="32"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
@@ -3363,25 +3314,11 @@
       <c r="Z68" s="1"/>
     </row>
     <row r="69" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A69" s="9"/>
-      <c r="B69" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C69" s="24"/>
-      <c r="D69" s="33">
-        <f>H51</f>
-        <v>1.7591438833101224E-2</v>
-      </c>
+      <c r="A69" s="5"/>
+      <c r="B69" s="64"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="64"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" s="24"/>
-      <c r="H69" s="35">
-        <f>D65</f>
-        <v>4320</v>
-      </c>
-      <c r="I69" s="31"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
@@ -3401,15 +3338,9 @@
       <c r="Z69" s="1"/>
     </row>
     <row r="70" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A70" s="9"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="28"/>
+      <c r="A70" s="5"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="26"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="32"/>
+      <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
@@ -3429,19 +3360,8 @@
       <c r="Z70" s="1"/>
     </row>
     <row r="71" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A71" s="9"/>
-      <c r="B71" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C71" s="24"/>
-      <c r="D71" s="37">
-        <f>H49*H51/D65</f>
-        <v>1</v>
-      </c>
+      <c r="A71" s="5"/>
       <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -3461,20 +3381,9 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
     </row>
-    <row r="72" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A72" s="9"/>
-      <c r="B72" s="25"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="28"/>
+    <row r="72" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="G72" s="24"/>
-      <c r="H72" s="35">
-        <f>H69/H55</f>
-        <v>288000</v>
-      </c>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
@@ -3496,18 +3405,10 @@
     </row>
     <row r="73" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C73" s="24"/>
-      <c r="D73" s="38">
-        <f>H55/H51</f>
-        <v>0.85268749999999993</v>
-      </c>
       <c r="E73" s="1"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="26"/>
-      <c r="H73" s="25"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
@@ -3529,9 +3430,6 @@
     </row>
     <row r="74" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="25"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="28"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
@@ -3557,24 +3455,9 @@
     </row>
     <row r="75" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="C75" s="24"/>
-      <c r="D75" s="36">
-        <f>D73*D71</f>
-        <v>0.85268749999999993</v>
-      </c>
       <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
+      <c r="M75" s="18"/>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
@@ -3590,12 +3473,12 @@
     </row>
     <row r="76" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="28"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="I76" s="1"/>
-      <c r="M76" s="31"/>
+      <c r="M76" s="19"/>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
@@ -3615,8 +3498,14 @@
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-      <c r="M77" s="32"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
@@ -3663,9 +3552,6 @@
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
@@ -3714,11 +3600,15 @@
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
@@ -3826,10 +3716,6 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
-      <c r="L85" s="1"/>
-      <c r="M85" s="1"/>
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
@@ -4046,6 +3932,10 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
@@ -30408,123 +30298,79 @@
       <c r="Y1035" s="1"/>
       <c r="Z1035" s="1"/>
     </row>
-    <row r="1036" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1036" s="1"/>
-      <c r="B1036" s="1"/>
-      <c r="C1036" s="1"/>
-      <c r="D1036" s="1"/>
-      <c r="E1036" s="1"/>
-      <c r="F1036" s="1"/>
-      <c r="G1036" s="1"/>
-      <c r="H1036" s="1"/>
-      <c r="I1036" s="1"/>
-      <c r="J1036" s="1"/>
-      <c r="K1036" s="1"/>
-      <c r="L1036" s="1"/>
-      <c r="M1036" s="1"/>
-      <c r="N1036" s="1"/>
-      <c r="O1036" s="1"/>
-      <c r="P1036" s="1"/>
-      <c r="Q1036" s="1"/>
-      <c r="R1036" s="1"/>
-      <c r="S1036" s="1"/>
-      <c r="T1036" s="1"/>
-      <c r="U1036" s="1"/>
-      <c r="V1036" s="1"/>
-      <c r="W1036" s="1"/>
-      <c r="X1036" s="1"/>
-      <c r="Y1036" s="1"/>
-      <c r="Z1036" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="71">
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A20:B21"/>
     <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="Q24:R25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="Q20:R21"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="Q18:R19"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="Q22:R23"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="O52:P52"/>
     <mergeCell ref="A32:B32"/>
-    <mergeCell ref="K41:L42"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="F34:G35"/>
-    <mergeCell ref="F36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="K37:L38"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="F38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="F40:G41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="F42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="K35:L36"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="K39:L40"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="F8:J9"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A34:B34"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="A35:B35"/>
     <mergeCell ref="B1:K2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="E4:I5"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="M76:M77"/>
-    <mergeCell ref="B71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="F72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="B73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="B75:C76"/>
-    <mergeCell ref="B69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="F69:G70"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="J67:K68"/>
-    <mergeCell ref="L67:L68"/>
-    <mergeCell ref="M67:M68"/>
-    <mergeCell ref="B59:C60"/>
-    <mergeCell ref="B61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="B63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="B65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="B67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="B57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="F66:G67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="F51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="F55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="F49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="J49:K50"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="M75:M76"/>
+    <mergeCell ref="B64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="G46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="B66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="B68:C69"/>
+    <mergeCell ref="B62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="G43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J66:K67"/>
+    <mergeCell ref="L66:L67"/>
+    <mergeCell ref="M66:M67"/>
+    <mergeCell ref="B52:C53"/>
+    <mergeCell ref="B54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="B56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="B58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="B60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="B50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="G36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="G40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="G34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J48:K49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -30538,8 +30384,8 @@
   </sheetPr>
   <dimension ref="A1:T119"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H72" sqref="H72:H73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -30550,18 +30396,18 @@
   <sheetData>
     <row r="1" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="24"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="15"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -30574,16 +30420,16 @@
     </row>
     <row r="2" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="26"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="17"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -30617,17 +30463,17 @@
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="2"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="63" t="s">
+      <c r="E4" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="24"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="15"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -30641,15 +30487,15 @@
       <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="26"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="17"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -30663,8 +30509,8 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="32"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -30686,13 +30532,13 @@
     </row>
     <row r="7" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -30703,22 +30549,25 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
-        <v>1</v>
+    <row r="8" spans="1:20" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="1"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="7" t="s">
+        <v>4</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="3">
-        <v>240102</v>
+      <c r="H8" s="7" t="s">
+        <v>5</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="1"/>
+      <c r="I8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -30729,23 +30578,25 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
-        <v>2</v>
+    <row r="9" spans="1:20" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="1"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="14" t="s">
+        <v>29</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="3">
-        <f>C8-(C8*C10)</f>
-        <v>24010.199999999983</v>
+      <c r="H9" s="9">
+        <v>0.72919999999999996</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="1"/>
+      <c r="I9" s="9">
+        <v>1.9E-2</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0.2039</v>
+      </c>
+      <c r="K9" s="9">
+        <v>4.8000000000000001E-2</v>
+      </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -30756,23 +30607,25 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="12">
-        <f>90%</f>
-        <v>0.9</v>
-      </c>
+    <row r="10" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="G10" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0.76249999999999996</v>
+      </c>
+      <c r="I10" s="9">
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0.18110000000000001</v>
+      </c>
+      <c r="K10" s="9">
+        <v>2.1499999999999998E-2</v>
+      </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -30789,22 +30642,21 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="13" t="s">
-        <v>4</v>
+      <c r="G11" s="14" t="s">
+        <v>37</v>
       </c>
-      <c r="G11" s="13" t="s">
-        <v>5</v>
+      <c r="H11" s="12">
+        <v>0.76249999999999996</v>
       </c>
-      <c r="H11" s="13" t="s">
-        <v>6</v>
+      <c r="I11" s="12">
+        <v>4.7199999999999999E-2</v>
       </c>
-      <c r="I11" s="13" t="s">
-        <v>7</v>
+      <c r="J11" s="12">
+        <v>0.16919999999999999</v>
       </c>
-      <c r="J11" s="11" t="s">
-        <v>8</v>
+      <c r="K11" s="12">
+        <v>2.0799999999999999E-2</v>
       </c>
-      <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -30821,26 +30673,21 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="22" t="s">
-        <v>29</v>
+      <c r="G12" s="13" t="s">
+        <v>31</v>
       </c>
-      <c r="G12" s="15">
-        <v>0.72919999999999996</v>
+      <c r="H12" s="9">
+        <v>0.76249999999999996</v>
       </c>
-      <c r="H12" s="15">
-        <v>1.9E-2</v>
+      <c r="I12" s="9">
+        <v>5.7000000000000002E-2</v>
       </c>
-      <c r="I12" s="15">
-        <v>0.2039</v>
+      <c r="J12" s="9">
+        <v>0.16420000000000001</v>
       </c>
-      <c r="J12" s="15">
-        <v>4.8000000000000001E-2</v>
+      <c r="K12" s="9">
+        <v>1.6299999999999999E-2</v>
       </c>
-      <c r="K12" s="17"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -30853,58 +30700,48 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="22" t="s">
-        <v>30</v>
+      <c r="G13" s="13" t="s">
+        <v>32</v>
       </c>
-      <c r="G13" s="15">
+      <c r="H13" s="9">
         <v>0.76249999999999996</v>
       </c>
-      <c r="H13" s="15">
-        <v>3.4799999999999998E-2</v>
+      <c r="I13" s="9">
+        <v>6.3100000000000003E-2</v>
       </c>
-      <c r="I13" s="15">
-        <v>0.18110000000000001</v>
+      <c r="J13" s="9">
+        <v>0.1585</v>
       </c>
-      <c r="J13" s="15">
-        <v>2.1499999999999998E-2</v>
+      <c r="K13" s="9">
+        <v>1.5900000000000001E-2</v>
       </c>
-      <c r="K13" s="18"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="22" t="s">
-        <v>37</v>
+      <c r="G14" s="13" t="s">
+        <v>33</v>
       </c>
-      <c r="G14" s="20">
-        <v>0.76249999999999996</v>
+      <c r="H14" s="9">
+        <v>0.8982</v>
       </c>
-      <c r="H14" s="20">
-        <v>4.7199999999999999E-2</v>
+      <c r="I14" s="9">
+        <v>6.6000000000000003E-2</v>
       </c>
-      <c r="I14" s="20">
-        <v>0.16919999999999999</v>
+      <c r="J14" s="9">
+        <v>1.7100000000000001E-2</v>
       </c>
-      <c r="J14" s="20">
-        <v>2.0799999999999999E-2</v>
+      <c r="K14" s="9">
+        <v>1.8700000000000001E-2</v>
       </c>
-      <c r="K14" s="17"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -30917,26 +30754,21 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="21" t="s">
-        <v>31</v>
+      <c r="G15" s="13" t="s">
+        <v>38</v>
       </c>
-      <c r="G15" s="15">
-        <v>0.76249999999999996</v>
+      <c r="H15" s="9">
+        <v>0.76259999999999994</v>
       </c>
-      <c r="H15" s="15">
-        <v>5.7000000000000002E-2</v>
+      <c r="I15" s="9">
+        <v>0.21659999999999999</v>
       </c>
-      <c r="I15" s="15">
-        <v>0.16420000000000001</v>
+      <c r="J15" s="9">
+        <v>0</v>
       </c>
-      <c r="J15" s="15">
-        <v>1.6299999999999999E-2</v>
+      <c r="K15" s="9">
+        <v>2.0799999999999999E-2</v>
       </c>
-      <c r="K15" s="18"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -30949,26 +30781,21 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="21" t="s">
-        <v>32</v>
+      <c r="G16" s="13" t="s">
+        <v>40</v>
       </c>
-      <c r="G16" s="15">
-        <v>0.76249999999999996</v>
+      <c r="H16" s="9">
+        <v>0.69130000000000003</v>
       </c>
-      <c r="H16" s="15">
-        <v>6.3100000000000003E-2</v>
+      <c r="I16" s="9">
+        <v>0.28689999999999999</v>
       </c>
-      <c r="I16" s="15">
-        <v>0.1585</v>
+      <c r="J16" s="9">
+        <v>0</v>
       </c>
-      <c r="J16" s="15">
-        <v>1.5900000000000001E-2</v>
+      <c r="K16" s="9">
+        <v>2.18E-2</v>
       </c>
-      <c r="K16" s="18"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -30981,26 +30808,21 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="21" t="s">
-        <v>33</v>
+      <c r="G17" s="13" t="s">
+        <v>34</v>
       </c>
-      <c r="G17" s="15">
-        <v>0.8982</v>
+      <c r="H17" s="9">
+        <v>0.92689999999999995</v>
       </c>
-      <c r="H17" s="15">
-        <v>6.6000000000000003E-2</v>
+      <c r="I17" s="9">
+        <v>5.1700000000000003E-2</v>
       </c>
-      <c r="I17" s="15">
-        <v>1.7100000000000001E-2</v>
+      <c r="J17" s="9">
+        <v>2.5999999999999999E-3</v>
       </c>
-      <c r="J17" s="15">
-        <v>1.8700000000000001E-2</v>
+      <c r="K17" s="9">
+        <v>1.89E-2</v>
       </c>
-      <c r="K17" s="18"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -31013,26 +30835,21 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="21" t="s">
-        <v>38</v>
+      <c r="G18" s="14" t="s">
+        <v>39</v>
       </c>
-      <c r="G18" s="15">
-        <v>0.76259999999999994</v>
+      <c r="H18" s="9">
+        <v>0.78259999999999996</v>
       </c>
-      <c r="H18" s="15">
-        <v>0.21659999999999999</v>
+      <c r="I18" s="9">
+        <v>7.1999999999999995E-2</v>
       </c>
-      <c r="I18" s="15">
-        <v>0</v>
+      <c r="J18" s="9">
+        <v>0.12180000000000001</v>
       </c>
-      <c r="J18" s="15">
-        <v>2.0799999999999999E-2</v>
+      <c r="K18" s="9">
+        <v>2.3599999999999999E-2</v>
       </c>
-      <c r="K18" s="18"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -31045,26 +30862,21 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="21" t="s">
-        <v>40</v>
+      <c r="G19" s="14" t="s">
+        <v>35</v>
       </c>
-      <c r="G19" s="15">
-        <v>0.69130000000000003</v>
+      <c r="H19" s="9">
+        <v>0.86950000000000005</v>
       </c>
-      <c r="H19" s="15">
-        <v>0.28689999999999999</v>
+      <c r="I19" s="9">
+        <v>9.0999999999999998E-2</v>
       </c>
-      <c r="I19" s="15">
-        <v>0</v>
+      <c r="J19" s="9">
+        <v>2.1100000000000001E-2</v>
       </c>
-      <c r="J19" s="15">
-        <v>2.18E-2</v>
+      <c r="K19" s="9">
+        <v>1.8499999999999999E-2</v>
       </c>
-      <c r="K19" s="18"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -31077,26 +30889,21 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="21" t="s">
-        <v>34</v>
+      <c r="G20" s="14" t="s">
+        <v>36</v>
       </c>
-      <c r="G20" s="15">
-        <v>0.92689999999999995</v>
+      <c r="H20" s="9">
+        <v>0.6956</v>
       </c>
-      <c r="H20" s="15">
-        <v>5.1700000000000003E-2</v>
+      <c r="I20" s="9">
+        <v>0.2883</v>
       </c>
-      <c r="I20" s="15">
-        <v>2.5999999999999999E-3</v>
+      <c r="J20" s="9">
+        <v>0</v>
       </c>
-      <c r="J20" s="15">
-        <v>1.89E-2</v>
+      <c r="K20" s="9">
+        <v>1.61E-2</v>
       </c>
-      <c r="K20" s="18"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -31109,30 +30916,30 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="22" t="s">
-        <v>39</v>
+      <c r="G21" s="14" t="s">
+        <v>41</v>
       </c>
-      <c r="G21" s="15">
-        <v>0.78259999999999996</v>
+      <c r="H21" s="9">
+        <v>0.77359999999999995</v>
       </c>
-      <c r="H21" s="15">
-        <v>7.1999999999999995E-2</v>
+      <c r="I21" s="9">
+        <v>9.2299999999999993E-2</v>
       </c>
-      <c r="I21" s="15">
-        <v>0.12180000000000001</v>
+      <c r="J21" s="9">
+        <v>0.11119999999999999</v>
       </c>
-      <c r="J21" s="15">
-        <v>2.3599999999999999E-2</v>
+      <c r="K21" s="9">
+        <v>2.29E-2</v>
       </c>
-      <c r="K21" s="18"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
+      <c r="Q21" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="R21" s="39"/>
+      <c r="S21" s="40">
+        <f>C33</f>
+        <v>0.77813333333333345</v>
+      </c>
       <c r="T21" s="1"/>
     </row>
     <row r="22" spans="1:20" ht="15" x14ac:dyDescent="0.35">
@@ -31141,250 +30948,217 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="22" t="s">
-        <v>35</v>
+      <c r="G22" s="14" t="s">
+        <v>42</v>
       </c>
-      <c r="G22" s="15">
-        <v>0.86950000000000005</v>
+      <c r="H22" s="9">
+        <v>0.85929999999999995</v>
       </c>
-      <c r="H22" s="15">
-        <v>9.0999999999999998E-2</v>
+      <c r="I22" s="9">
+        <v>0.1055</v>
       </c>
-      <c r="I22" s="15">
-        <v>2.1100000000000001E-2</v>
+      <c r="J22" s="9">
+        <v>1.95E-2</v>
       </c>
-      <c r="J22" s="15">
-        <v>1.8499999999999999E-2</v>
+      <c r="K22" s="9">
+        <v>1.5699999999999999E-2</v>
       </c>
-      <c r="K22" s="18"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
       <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="43"/>
       <c r="T22" s="1"/>
     </row>
     <row r="23" spans="1:20" ht="15" x14ac:dyDescent="0.35">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="A23" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="31"/>
+      <c r="C23" s="90" t="s">
+        <v>11</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="22" t="s">
-        <v>36</v>
+      <c r="G23" s="14" t="s">
+        <v>43</v>
       </c>
-      <c r="G23" s="15">
-        <v>0.6956</v>
+      <c r="H23" s="9">
+        <v>0.6875</v>
       </c>
-      <c r="H23" s="15">
-        <v>0.2883</v>
+      <c r="I23" s="9">
+        <v>0.29320000000000002</v>
       </c>
-      <c r="I23" s="15">
+      <c r="J23" s="9">
         <v>0</v>
       </c>
-      <c r="J23" s="15">
-        <v>1.61E-2</v>
+      <c r="K23" s="9">
+        <v>1.9300000000000001E-2</v>
       </c>
-      <c r="K23" s="18"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
       <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
+      <c r="Q23" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="R23" s="67"/>
+      <c r="S23" s="68">
+        <f>D73</f>
+        <v>0.80322916666666366</v>
+      </c>
       <c r="T23" s="1"/>
     </row>
     <row r="24" spans="1:20" ht="15" x14ac:dyDescent="0.35">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="22" t="s">
-        <v>41</v>
+      <c r="G24" s="14" t="s">
+        <v>44</v>
       </c>
-      <c r="G24" s="15">
-        <v>0.77359999999999995</v>
+      <c r="H24" s="9">
+        <v>0.7601</v>
       </c>
-      <c r="H24" s="15">
-        <v>9.2299999999999993E-2</v>
+      <c r="I24" s="9">
+        <v>0.12859999999999999</v>
       </c>
-      <c r="I24" s="15">
-        <v>0.11119999999999999</v>
+      <c r="J24" s="9">
+        <v>9.0399999999999994E-2</v>
       </c>
-      <c r="J24" s="15">
-        <v>2.29E-2</v>
+      <c r="K24" s="9">
+        <v>2.0899999999999998E-2</v>
       </c>
-      <c r="K24" s="18"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
       <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
+      <c r="Q24" s="69"/>
+      <c r="R24" s="70"/>
+      <c r="S24" s="71"/>
       <c r="T24" s="1"/>
     </row>
     <row r="25" spans="1:20" ht="15" x14ac:dyDescent="0.35">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="A25" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="92"/>
+      <c r="C25" s="36">
+        <f>C29*K27</f>
+        <v>91.103999999999985</v>
+      </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="22" t="s">
-        <v>42</v>
+      <c r="G25" s="14" t="s">
+        <v>45</v>
       </c>
-      <c r="G25" s="15">
-        <v>0.85929999999999995</v>
+      <c r="H25" s="9">
+        <v>0.84440000000000004</v>
       </c>
-      <c r="H25" s="15">
-        <v>0.1055</v>
+      <c r="I25" s="9">
+        <v>0.1176</v>
       </c>
-      <c r="I25" s="15">
-        <v>1.95E-2</v>
+      <c r="J25" s="9">
+        <v>1.9099999999999999E-2</v>
       </c>
-      <c r="J25" s="15">
-        <v>1.5699999999999999E-2</v>
+      <c r="K25" s="9">
+        <v>1.89E-2</v>
       </c>
-      <c r="K25" s="18"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
       <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
+      <c r="Q25" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="R25" s="79"/>
+      <c r="S25" s="80">
+        <f>N57</f>
+        <v>0.85</v>
+      </c>
       <c r="T25" s="1"/>
     </row>
     <row r="26" spans="1:20" ht="15" x14ac:dyDescent="0.35">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="A26" s="93"/>
+      <c r="B26" s="94"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="22" t="s">
-        <v>43</v>
+      <c r="G26" s="14" t="s">
+        <v>46</v>
       </c>
-      <c r="G26" s="15">
-        <v>0.6875</v>
+      <c r="H26" s="9">
+        <v>0.67549999999999999</v>
       </c>
-      <c r="H26" s="15">
-        <v>0.29320000000000002</v>
+      <c r="I26" s="9">
+        <v>0.30349999999999999</v>
       </c>
-      <c r="I26" s="15">
+      <c r="J26" s="9">
         <v>0</v>
       </c>
-      <c r="J26" s="15">
-        <v>1.9300000000000001E-2</v>
+      <c r="K26" s="9">
+        <v>2.1000000000000001E-2</v>
       </c>
-      <c r="K26" s="18"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
       <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
+      <c r="Q26" s="79"/>
+      <c r="R26" s="79"/>
+      <c r="S26" s="79"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27" spans="1:20" ht="15" x14ac:dyDescent="0.35">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+    <row r="27" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="91" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="92"/>
+      <c r="C27" s="36">
+        <f>C29*(I27+J27)</f>
+        <v>867.3599999999999</v>
+      </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="22" t="s">
-        <v>44</v>
+      <c r="G27" s="11" t="s">
+        <v>9</v>
       </c>
-      <c r="G27" s="15">
-        <v>0.7601</v>
+      <c r="H27" s="8">
+        <f>SUM(H9:H26)/18</f>
+        <v>0.77812777777777775</v>
       </c>
-      <c r="H27" s="15">
-        <v>0.12859999999999999</v>
+      <c r="I27" s="8">
+        <f>SUM(I9:I26)/18</f>
+        <v>0.12968333333333332</v>
       </c>
-      <c r="I27" s="15">
-        <v>9.0399999999999994E-2</v>
+      <c r="J27" s="8">
+        <f>SUM(J9:J26)/18</f>
+        <v>7.1094444444444432E-2</v>
       </c>
-      <c r="J27" s="15">
-        <v>2.0899999999999998E-2</v>
+      <c r="K27" s="10">
+        <f>SUM(K9:K26)/18</f>
+        <v>2.1088888888888886E-2</v>
       </c>
-      <c r="K27" s="18"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
       <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
+      <c r="Q27" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="R27" s="82"/>
+      <c r="S27" s="83">
+        <f>S25*S23*S21</f>
+        <v>0.5312664805555537</v>
+      </c>
       <c r="T27" s="1"/>
     </row>
-    <row r="28" spans="1:20" ht="15" x14ac:dyDescent="0.35">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+    <row r="28" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A28" s="93"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="22" t="s">
-        <v>45</v>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="82"/>
+      <c r="R28" s="82"/>
+      <c r="S28" s="82"/>
+      <c r="T28" s="1"/>
+    </row>
+    <row r="29" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="89" t="s">
+        <v>16</v>
       </c>
-      <c r="G28" s="15">
-        <v>0.84440000000000004</v>
+      <c r="B29" s="95"/>
+      <c r="C29" s="36">
+        <v>4320</v>
       </c>
-      <c r="H28" s="15">
-        <v>0.1176</v>
-      </c>
-      <c r="I28" s="15">
-        <v>1.9099999999999999E-2</v>
-      </c>
-      <c r="J28" s="15">
-        <v>1.89E-2</v>
-      </c>
-      <c r="K28" s="18"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-    </row>
-    <row r="29" spans="1:20" ht="15" x14ac:dyDescent="0.35">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="G29" s="15">
-        <v>0.67549999999999999</v>
-      </c>
-      <c r="H29" s="15">
-        <v>0.30349999999999999</v>
-      </c>
-      <c r="I29" s="15">
-        <v>0</v>
-      </c>
-      <c r="J29" s="15">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="K29" s="18"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -31392,35 +31166,11 @@
       <c r="T29" s="1"/>
     </row>
     <row r="30" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="A30" s="96"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" s="14">
-        <f>SUM(G12:G29)/18</f>
-        <v>0.77812777777777775</v>
-      </c>
-      <c r="H30" s="14">
-        <f>SUM(H12:H29)/18</f>
-        <v>0.12968333333333332</v>
-      </c>
-      <c r="I30" s="14">
-        <f>SUM(I12:I29)/18</f>
-        <v>7.1094444444444432E-2</v>
-      </c>
-      <c r="J30" s="16">
-        <f>SUM(J12:J29)/18</f>
-        <v>2.1088888888888886E-2</v>
-      </c>
-      <c r="K30" s="17"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -31428,9 +31178,14 @@
       <c r="T30" s="1"/>
     </row>
     <row r="31" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="1"/>
+      <c r="A31" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="95"/>
+      <c r="C31" s="36">
+        <f>C29-C27-C25</f>
+        <v>3361.5360000000005</v>
+      </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -31438,21 +31193,26 @@
       <c r="H31" s="1"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
+    <row r="32" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="96"/>
+      <c r="B32" s="97"/>
+      <c r="C32" s="37"/>
+    </row>
     <row r="33" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="31"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="1"/>
+      <c r="A33" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="98"/>
+      <c r="C33" s="40">
+        <f>C31/C29</f>
+        <v>0.77813333333333345</v>
+      </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -31472,9 +31232,9 @@
       <c r="T33" s="1"/>
     </row>
     <row r="34" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="31"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="1"/>
+      <c r="A34" s="99"/>
+      <c r="B34" s="100"/>
+      <c r="C34" s="101"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -31494,8 +31254,8 @@
       <c r="T34" s="1"/>
     </row>
     <row r="35" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
-      <c r="B35" s="32"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="19"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -31516,12 +31276,19 @@
       <c r="T35" s="1"/>
     </row>
     <row r="36" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="32"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="19"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="G36" s="102" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="103"/>
+      <c r="I36" s="104">
+        <f>N55</f>
+        <v>208197</v>
+      </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -31535,12 +31302,14 @@
       <c r="T36" s="1"/>
     </row>
     <row r="37" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="31"/>
-      <c r="B37" s="32"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="19"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="G37" s="105"/>
+      <c r="H37" s="106"/>
+      <c r="I37" s="107"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -31554,19 +31323,19 @@
       <c r="T37" s="1"/>
     </row>
     <row r="38" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="31"/>
-      <c r="B38" s="32"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="19"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="51" t="s">
-        <v>10</v>
+      <c r="G38" s="102" t="s">
+        <v>20</v>
       </c>
-      <c r="G38" s="70"/>
-      <c r="H38" s="46" t="s">
-        <v>48</v>
+      <c r="H38" s="103"/>
+      <c r="I38" s="108">
+        <f>0.02</f>
+        <v>0.02</v>
       </c>
-      <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -31580,24 +31349,15 @@
       <c r="T38" s="1"/>
     </row>
     <row r="39" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
-      <c r="B39" s="32"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="19"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="71"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="1"/>
+      <c r="G39" s="105"/>
+      <c r="H39" s="106"/>
+      <c r="I39" s="107"/>
       <c r="J39" s="1"/>
-      <c r="K39" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="L39" s="24"/>
-      <c r="M39" s="27">
-        <f>H48</f>
-        <v>0.77813333333333345</v>
-      </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
@@ -31607,23 +31367,19 @@
       <c r="T39" s="1"/>
     </row>
     <row r="40" spans="1:20" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
-      <c r="B40" s="32"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="19"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="52" t="s">
-        <v>13</v>
+      <c r="G40" s="109" t="s">
+        <v>48</v>
       </c>
-      <c r="G40" s="67"/>
-      <c r="H40" s="53">
-        <f>H44*J30</f>
-        <v>91.103999999999985</v>
+      <c r="H40" s="110"/>
+      <c r="I40" s="111">
+        <f>I38*60</f>
+        <v>1.2</v>
       </c>
-      <c r="I40" s="31"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="26"/>
-      <c r="M40" s="28"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
@@ -31638,17 +31394,13 @@
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="69"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="32"/>
-      <c r="K41" s="39" t="s">
-        <v>14</v>
+      <c r="G41" s="109" t="s">
+        <v>49</v>
       </c>
-      <c r="L41" s="24"/>
-      <c r="M41" s="36">
-        <f>D79</f>
-        <v>0.83368750000000003</v>
+      <c r="H41" s="110"/>
+      <c r="I41" s="111">
+        <f>I42*60</f>
+        <v>0.999999999999996</v>
       </c>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
@@ -31664,19 +31416,15 @@
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="52" t="s">
-        <v>15</v>
+      <c r="G42" s="102" t="s">
+        <v>21</v>
       </c>
-      <c r="G42" s="67"/>
-      <c r="H42" s="53">
-        <f>H44*(H30+I30)</f>
-        <v>867.3599999999999</v>
+      <c r="H42" s="103"/>
+      <c r="I42" s="108">
+        <f>0.0166666666666666</f>
+        <v>1.6666666666666601E-2</v>
       </c>
-      <c r="I42" s="31"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="26"/>
-      <c r="M42" s="28"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
@@ -31691,19 +31439,10 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="69"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="32"/>
+      <c r="G43" s="105"/>
+      <c r="H43" s="106"/>
+      <c r="I43" s="107"/>
       <c r="J43" s="1"/>
-      <c r="K43" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="L43" s="32"/>
-      <c r="M43" s="48">
-        <f>C10</f>
-        <v>0.9</v>
-      </c>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
@@ -31713,23 +31452,20 @@
       <c r="T43" s="1"/>
     </row>
     <row r="44" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="31"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="7"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="3"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="54" t="s">
-        <v>16</v>
+      <c r="G44" s="102" t="s">
+        <v>18</v>
       </c>
-      <c r="G44" s="64"/>
-      <c r="H44" s="53">
+      <c r="H44" s="103"/>
+      <c r="I44" s="112">
+        <f>D63</f>
         <v>4320</v>
       </c>
-      <c r="I44" s="31"/>
       <c r="J44" s="1"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="32"/>
-      <c r="M44" s="32"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
@@ -31739,24 +31475,15 @@
       <c r="T44" s="1"/>
     </row>
     <row r="45" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="31"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="7"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="3"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="66"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="32"/>
+      <c r="G45" s="105"/>
+      <c r="H45" s="106"/>
+      <c r="I45" s="113"/>
       <c r="J45" s="1"/>
-      <c r="K45" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="L45" s="32"/>
-      <c r="M45" s="50">
-        <f>M43*M41*M39</f>
-        <v>0.58384803000000007</v>
-      </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
@@ -31766,24 +31493,15 @@
       <c r="T45" s="1"/>
     </row>
     <row r="46" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="31"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="8"/>
+      <c r="A46" s="18"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="4"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" s="64"/>
-      <c r="H46" s="53">
-        <f>H44-H42-H40</f>
-        <v>3361.5360000000005</v>
-      </c>
-      <c r="I46" s="1"/>
+      <c r="G46" s="114"/>
+      <c r="H46" s="114"/>
+      <c r="I46" s="114"/>
       <c r="J46" s="1"/>
-      <c r="K46" s="32"/>
-      <c r="L46" s="32"/>
-      <c r="M46" s="32"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
@@ -31798,10 +31516,14 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="65"/>
-      <c r="G47" s="66"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="1"/>
+      <c r="G47" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" s="103"/>
+      <c r="I47" s="112">
+        <f>C29/I42</f>
+        <v>259200.00000000102</v>
+      </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -31820,15 +31542,9 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="60"/>
-      <c r="H48" s="27">
-        <f>H46/H44</f>
-        <v>0.77813333333333345</v>
-      </c>
-      <c r="I48" s="1"/>
+      <c r="G48" s="105"/>
+      <c r="H48" s="106"/>
+      <c r="I48" s="113"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -31847,9 +31563,6 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="62"/>
-      <c r="H49" s="56"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -31930,24 +31643,16 @@
       <c r="T52" s="1"/>
     </row>
     <row r="53" spans="1:20" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" s="57"/>
-      <c r="H53" s="30">
-        <f>C8</f>
-        <v>240102</v>
-      </c>
       <c r="I53" s="1"/>
-      <c r="J53" s="31"/>
-      <c r="K53" s="32"/>
-      <c r="L53" s="31"/>
-      <c r="M53" s="31"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="18"/>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
@@ -31957,19 +31662,16 @@
       <c r="T53" s="1"/>
     </row>
     <row r="54" spans="1:20" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="58"/>
-      <c r="G54" s="59"/>
-      <c r="H54" s="28"/>
       <c r="I54" s="1"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="32"/>
-      <c r="L54" s="32"/>
-      <c r="M54" s="32"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
@@ -31979,25 +31681,26 @@
       <c r="T54" s="1"/>
     </row>
     <row r="55" spans="1:20" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
+      <c r="A55" s="5"/>
+      <c r="B55" s="102" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="115"/>
+      <c r="D55" s="116">
+        <f>I36/I47</f>
+        <v>0.80322916666666355</v>
+      </c>
       <c r="E55" s="1"/>
-      <c r="F55" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G55" s="57"/>
-      <c r="H55" s="33">
-        <f>H44/H53</f>
-        <v>1.7992353249868805E-2</v>
-      </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
+      <c r="L55" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="M55" s="73"/>
+      <c r="N55" s="74">
+        <v>208197</v>
+      </c>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
@@ -32006,20 +31709,22 @@
       <c r="T55" s="1"/>
     </row>
     <row r="56" spans="1:20" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
+      <c r="A56" s="5"/>
+      <c r="B56" s="113"/>
+      <c r="C56" s="117"/>
+      <c r="D56" s="107"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="58"/>
-      <c r="G56" s="59"/>
-      <c r="H56" s="28"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
+      <c r="L56" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="M56" s="73"/>
+      <c r="N56" s="74">
+        <f>N55-(N55*N57)</f>
+        <v>31229.550000000017</v>
+      </c>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
@@ -32028,25 +31733,27 @@
       <c r="T56" s="1"/>
     </row>
     <row r="57" spans="1:20" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
+      <c r="A57" s="5"/>
+      <c r="B57" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="115"/>
+      <c r="D57" s="116">
+        <f>I42/I38</f>
+        <v>0.83333333333333004</v>
+      </c>
       <c r="E57" s="1"/>
-      <c r="F57" s="73" t="s">
-        <v>49</v>
-      </c>
-      <c r="G57" s="74"/>
-      <c r="H57" s="10">
-        <f>H55*60</f>
-        <v>1.0795411949921283</v>
-      </c>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
+      <c r="L57" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="76"/>
+      <c r="N57" s="120">
+        <f>85%</f>
+        <v>0.85</v>
+      </c>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
@@ -32055,19 +31762,11 @@
       <c r="T57" s="1"/>
     </row>
     <row r="58" spans="1:20" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A58" s="9"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
+      <c r="A58" s="5"/>
+      <c r="B58" s="113"/>
+      <c r="C58" s="117"/>
+      <c r="D58" s="107"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="G58" s="74"/>
-      <c r="H58" s="10">
-        <f>H59*60</f>
-        <v>0.89999999999999991</v>
-      </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -32082,19 +31781,16 @@
       <c r="T58" s="1"/>
     </row>
     <row r="59" spans="1:20" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
+      <c r="A59" s="5"/>
+      <c r="B59" s="102" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" s="115"/>
+      <c r="D59" s="104">
+        <f>I36</f>
+        <v>208197</v>
+      </c>
       <c r="E59" s="1"/>
-      <c r="F59" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" s="57"/>
-      <c r="H59" s="33">
-        <f>0.015</f>
-        <v>1.4999999999999999E-2</v>
-      </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -32109,14 +31805,11 @@
       <c r="T59" s="1"/>
     </row>
     <row r="60" spans="1:20" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A60" s="9"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
+      <c r="A60" s="5"/>
+      <c r="B60" s="113"/>
+      <c r="C60" s="117"/>
+      <c r="D60" s="107"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="58"/>
-      <c r="G60" s="59"/>
-      <c r="H60" s="28"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
@@ -32131,14 +31824,14 @@
       <c r="T60" s="1"/>
     </row>
     <row r="61" spans="1:20" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A61" s="9"/>
-      <c r="B61" s="29" t="s">
-        <v>22</v>
+      <c r="A61" s="5"/>
+      <c r="B61" s="102" t="s">
+        <v>24</v>
       </c>
-      <c r="C61" s="24"/>
-      <c r="D61" s="34">
-        <f>H53/H72</f>
-        <v>0.83368750000000003</v>
+      <c r="C61" s="115"/>
+      <c r="D61" s="112">
+        <f>C29/I42</f>
+        <v>259200.00000000102</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -32158,10 +31851,10 @@
       <c r="T61" s="1"/>
     </row>
     <row r="62" spans="1:20" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A62" s="9"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="28"/>
+      <c r="A62" s="5"/>
+      <c r="B62" s="113"/>
+      <c r="C62" s="117"/>
+      <c r="D62" s="113"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -32180,14 +31873,14 @@
       <c r="T62" s="1"/>
     </row>
     <row r="63" spans="1:20" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A63" s="9"/>
-      <c r="B63" s="29" t="s">
-        <v>23</v>
+      <c r="A63" s="5"/>
+      <c r="B63" s="102" t="s">
+        <v>25</v>
       </c>
-      <c r="C63" s="24"/>
-      <c r="D63" s="34">
-        <f>H59/H55</f>
-        <v>0.83368750000000003</v>
+      <c r="C63" s="115"/>
+      <c r="D63" s="108">
+        <f>C29</f>
+        <v>4320</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -32207,10 +31900,10 @@
       <c r="T63" s="1"/>
     </row>
     <row r="64" spans="1:20" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A64" s="9"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="28"/>
+      <c r="A64" s="5"/>
+      <c r="B64" s="113"/>
+      <c r="C64" s="117"/>
+      <c r="D64" s="107"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -32229,14 +31922,14 @@
       <c r="T64" s="1"/>
     </row>
     <row r="65" spans="1:20" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A65" s="9"/>
-      <c r="B65" s="29" t="s">
-        <v>19</v>
+      <c r="A65" s="5"/>
+      <c r="B65" s="102" t="s">
+        <v>21</v>
       </c>
-      <c r="C65" s="24"/>
-      <c r="D65" s="30">
-        <f>H53</f>
-        <v>240102</v>
+      <c r="C65" s="115"/>
+      <c r="D65" s="108">
+        <f>I42</f>
+        <v>1.6666666666666601E-2</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -32256,15 +31949,15 @@
       <c r="T65" s="1"/>
     </row>
     <row r="66" spans="1:20" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A66" s="9"/>
-      <c r="B66" s="25"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="28"/>
+      <c r="A66" s="5"/>
+      <c r="B66" s="113"/>
+      <c r="C66" s="117"/>
+      <c r="D66" s="107"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="57"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="31"/>
+      <c r="F66" s="44"/>
+      <c r="G66" s="44"/>
+      <c r="H66" s="44"/>
+      <c r="I66" s="18"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
@@ -32278,24 +31971,24 @@
       <c r="T66" s="1"/>
     </row>
     <row r="67" spans="1:20" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A67" s="9"/>
-      <c r="B67" s="29" t="s">
-        <v>24</v>
+      <c r="A67" s="5"/>
+      <c r="B67" s="102" t="s">
+        <v>26</v>
       </c>
-      <c r="C67" s="24"/>
-      <c r="D67" s="35">
-        <f>H44/H59</f>
-        <v>288000</v>
+      <c r="C67" s="115"/>
+      <c r="D67" s="108">
+        <f>I38</f>
+        <v>0.02</v>
       </c>
       <c r="E67" s="1"/>
-      <c r="F67" s="58"/>
-      <c r="G67" s="59"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="32"/>
-      <c r="J67" s="31"/>
-      <c r="K67" s="32"/>
-      <c r="L67" s="31"/>
-      <c r="M67" s="31"/>
+      <c r="F67" s="44"/>
+      <c r="G67" s="44"/>
+      <c r="H67" s="45"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="18"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="18"/>
+      <c r="M67" s="18"/>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
@@ -32305,19 +31998,19 @@
       <c r="T67" s="1"/>
     </row>
     <row r="68" spans="1:20" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A68" s="9"/>
-      <c r="B68" s="25"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="25"/>
+      <c r="A68" s="5"/>
+      <c r="B68" s="113"/>
+      <c r="C68" s="117"/>
+      <c r="D68" s="107"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="32"/>
-      <c r="K68" s="32"/>
-      <c r="L68" s="32"/>
-      <c r="M68" s="32"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="19"/>
+      <c r="L68" s="19"/>
+      <c r="M68" s="19"/>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
@@ -32327,25 +32020,17 @@
       <c r="T68" s="1"/>
     </row>
     <row r="69" spans="1:20" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A69" s="9"/>
-      <c r="B69" s="29" t="s">
-        <v>25</v>
+      <c r="A69" s="5"/>
+      <c r="B69" s="102" t="s">
+        <v>27</v>
       </c>
-      <c r="C69" s="24"/>
-      <c r="D69" s="33">
-        <f>H44</f>
-        <v>4320</v>
+      <c r="C69" s="115"/>
+      <c r="D69" s="118">
+        <f>I36*I38/D63</f>
+        <v>0.96387500000000015</v>
       </c>
       <c r="E69" s="1"/>
-      <c r="F69" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" s="57"/>
-      <c r="H69" s="35">
-        <f>D69</f>
-        <v>4320</v>
-      </c>
-      <c r="I69" s="31"/>
+      <c r="I69" s="18"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
@@ -32359,15 +32044,12 @@
       <c r="T69" s="1"/>
     </row>
     <row r="70" spans="1:20" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A70" s="9"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="28"/>
+      <c r="A70" s="5"/>
+      <c r="B70" s="113"/>
+      <c r="C70" s="117"/>
+      <c r="D70" s="107"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="58"/>
-      <c r="G70" s="59"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="32"/>
+      <c r="I70" s="19"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
@@ -32381,19 +32063,16 @@
       <c r="T70" s="1"/>
     </row>
     <row r="71" spans="1:20" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A71" s="9"/>
-      <c r="B71" s="29" t="s">
-        <v>21</v>
+      <c r="A71" s="5"/>
+      <c r="B71" s="102" t="s">
+        <v>28</v>
       </c>
-      <c r="C71" s="24"/>
-      <c r="D71" s="33">
-        <f>H59</f>
-        <v>1.4999999999999999E-2</v>
+      <c r="C71" s="115"/>
+      <c r="D71" s="119">
+        <f>I42/I38</f>
+        <v>0.83333333333333004</v>
       </c>
       <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -32408,19 +32087,11 @@
       <c r="T71" s="1"/>
     </row>
     <row r="72" spans="1:20" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A72" s="9"/>
-      <c r="B72" s="25"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="28"/>
+      <c r="A72" s="5"/>
+      <c r="B72" s="113"/>
+      <c r="C72" s="117"/>
+      <c r="D72" s="107"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="G72" s="57"/>
-      <c r="H72" s="35">
-        <f>H44/H59</f>
-        <v>288000</v>
-      </c>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
@@ -32436,23 +32107,17 @@
     </row>
     <row r="73" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="29" t="s">
-        <v>26</v>
+      <c r="B73" s="66" t="s">
+        <v>14</v>
       </c>
-      <c r="C73" s="24"/>
-      <c r="D73" s="33">
-        <f>H55</f>
-        <v>1.7992353249868805E-2</v>
+      <c r="C73" s="67"/>
+      <c r="D73" s="68">
+        <f>D71*D69</f>
+        <v>0.80322916666666366</v>
       </c>
       <c r="E73" s="1"/>
-      <c r="F73" s="58"/>
-      <c r="G73" s="59"/>
-      <c r="H73" s="25"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
@@ -32463,18 +32128,15 @@
     </row>
     <row r="74" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="25"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="28"/>
+      <c r="B74" s="69"/>
+      <c r="C74" s="70"/>
+      <c r="D74" s="71"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
@@ -32485,23 +32147,12 @@
     </row>
     <row r="75" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C75" s="24"/>
-      <c r="D75" s="37">
-        <f>H53*H55/D69</f>
-        <v>1</v>
-      </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
@@ -32512,12 +32163,8 @@
     </row>
     <row r="76" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="28"/>
       <c r="E76" s="1"/>
       <c r="I76" s="1"/>
-      <c r="M76" s="31"/>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
@@ -32527,17 +32174,8 @@
     </row>
     <row r="77" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C77" s="24"/>
-      <c r="D77" s="38">
-        <f>H59/H55</f>
-        <v>0.83368750000000003</v>
-      </c>
       <c r="E77" s="1"/>
       <c r="I77" s="1"/>
-      <c r="M77" s="32"/>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
@@ -32547,18 +32185,12 @@
     </row>
     <row r="78" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
-      <c r="B78" s="25"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="28"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
@@ -32568,23 +32200,12 @@
     </row>
     <row r="79" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
-      <c r="B79" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="C79" s="24"/>
-      <c r="D79" s="36">
-        <f>D77*D75</f>
-        <v>0.83368750000000003</v>
-      </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
-      <c r="M79" s="1"/>
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
@@ -32594,15 +32215,9 @@
     </row>
     <row r="80" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
-      <c r="B80" s="25"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="28"/>
       <c r="E80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
@@ -32618,9 +32233,6 @@
       <c r="E81" s="1"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
-      <c r="M81" s="1"/>
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
@@ -32639,9 +32251,6 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-      <c r="L82" s="1"/>
-      <c r="M82" s="1"/>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
@@ -32661,9 +32270,6 @@
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
-      <c r="L83" s="1"/>
-      <c r="M83" s="1"/>
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
@@ -32683,9 +32289,6 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
-      <c r="L84" s="1"/>
-      <c r="M84" s="1"/>
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
@@ -32705,9 +32308,6 @@
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
-      <c r="L85" s="1"/>
-      <c r="M85" s="1"/>
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
@@ -33429,94 +33029,84 @@
       <c r="T119" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
-    <mergeCell ref="F40:G41"/>
-    <mergeCell ref="F38:G39"/>
+  <mergeCells count="77">
+    <mergeCell ref="A25:B26"/>
+    <mergeCell ref="A23:B24"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="A46:B46"/>
-    <mergeCell ref="F42:G43"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A27:B28"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="L57:M57"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A36:B36"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="K45:L46"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="K41:L42"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="F46:G47"/>
-    <mergeCell ref="F44:G45"/>
-    <mergeCell ref="M76:M77"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="Q27:R28"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="Q23:R24"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="A29:B30"/>
     <mergeCell ref="B1:K2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="E4:I5"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="F8:J9"/>
+    <mergeCell ref="L55:M55"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
-    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="C23:C24"/>
     <mergeCell ref="A39:B39"/>
-    <mergeCell ref="K39:L40"/>
-    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="Q21:R22"/>
+    <mergeCell ref="S21:S22"/>
     <mergeCell ref="A40:B40"/>
-    <mergeCell ref="K43:L44"/>
-    <mergeCell ref="F72:G73"/>
-    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="Q25:R26"/>
+    <mergeCell ref="G47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="B67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="B69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="B65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="B71:C72"/>
+    <mergeCell ref="D71:D72"/>
     <mergeCell ref="B73:C74"/>
     <mergeCell ref="D73:D74"/>
-    <mergeCell ref="B75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="B71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="B77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="B79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="B69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="F69:G70"/>
-    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="B63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="G44:H45"/>
+    <mergeCell ref="I44:I45"/>
     <mergeCell ref="I69:I70"/>
     <mergeCell ref="L67:L68"/>
     <mergeCell ref="M67:M68"/>
-    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D57:D58"/>
     <mergeCell ref="I66:I67"/>
     <mergeCell ref="J67:K68"/>
-    <mergeCell ref="B63:C64"/>
-    <mergeCell ref="B65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="F66:G67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="B67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="B57:C58"/>
+    <mergeCell ref="B59:C60"/>
+    <mergeCell ref="D59:D60"/>
     <mergeCell ref="B61:C62"/>
     <mergeCell ref="D61:D62"/>
-    <mergeCell ref="F59:G60"/>
-    <mergeCell ref="F55:G56"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="F53:G54"/>
-    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="B55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="G42:H43"/>
+    <mergeCell ref="G38:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="G36:H37"/>
+    <mergeCell ref="I36:I37"/>
     <mergeCell ref="J53:K54"/>
     <mergeCell ref="L53:L54"/>
-    <mergeCell ref="F48:G49"/>
+    <mergeCell ref="A33:B34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
